--- a/excel/dosyalar/ayo_maliyet_listesi.xlsx
+++ b/excel/dosyalar/ayo_maliyet_listesi.xlsx
@@ -843,17 +843,17 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>İP</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>24FLOS56</t>
+          <t>24PK3006-2</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -863,57 +863,57 @@
       </c>
       <c r="E2" s="22" t="inlineStr">
         <is>
-          <t>Küçüker Makina</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="F2" s="32" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>28-03-2024</t>
         </is>
       </c>
       <c r="G2" s="32" t="inlineStr">
         <is>
-          <t>09-03-2024</t>
+          <t>03-05-2024</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>EXW</t>
         </is>
       </c>
       <c r="K2" s="33" t="n">
-        <v>19519.01</v>
+        <v>4242.23</v>
       </c>
       <c r="L2" s="34" t="n">
-        <v>12503.2225</v>
+        <v>4242.225</v>
       </c>
       <c r="M2" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="34" t="n">
-        <v>3000.72</v>
+        <v>0</v>
       </c>
       <c r="O2" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="34" t="n">
-        <v>75.19</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="35" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="35" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S2" s="35" t="n">
         <v>0</v>
@@ -946,34 +946,34 @@
         <v>0</v>
       </c>
       <c r="AC2" s="37" t="n">
-        <v>15988.4825</v>
+        <v>4242.225</v>
       </c>
       <c r="AD2" s="38" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AE2" s="17" t="n">
-        <v>0</v>
+        <v>0.16165</v>
       </c>
       <c r="AF2" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>07-05-2024</t>
         </is>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>23FAS79</t>
+          <t>24AMA01-1</t>
         </is>
       </c>
       <c r="D3" s="22" t="inlineStr">
@@ -988,31 +988,31 @@
       </c>
       <c r="F3" s="32" t="inlineStr">
         <is>
-          <t>29-12-2023</t>
+          <t>22-03-2024</t>
         </is>
       </c>
       <c r="G3" s="32" t="inlineStr">
         <is>
-          <t>12-03-2024</t>
+          <t>12-05-2024</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
         <is>
-          <t>Bennis - Morocco</t>
+          <t>Mario &amp; Maurizio Ascione - Malta</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>CFR</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K3" s="33" t="n">
-        <v>18071.54</v>
+        <v>2138.34</v>
       </c>
       <c r="L3" s="34" t="n">
         <v>0</v>
@@ -1021,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="N3" s="34" t="n">
-        <v>14377.24</v>
+        <v>1179.36</v>
       </c>
       <c r="O3" s="34" t="n">
-        <v>524.92</v>
+        <v>0</v>
       </c>
       <c r="P3" s="34" t="n">
-        <v>71.89</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="35" t="n">
-        <v>10.91</v>
+        <v>0</v>
       </c>
       <c r="R3" s="35" t="n">
         <v>400</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="35" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="U3" s="35" t="n">
         <v>0</v>
@@ -1060,30 +1060,30 @@
         <v>0</v>
       </c>
       <c r="AA3" s="36" t="n">
-        <v>51.79</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC3" s="37" t="n">
-        <v>16236.75</v>
+        <v>1590.21</v>
       </c>
       <c r="AD3" s="38" t="n">
-        <v>0</v>
+        <v>548.13</v>
       </c>
       <c r="AE3" s="17" t="n">
-        <v>0</v>
+        <v>17682.6738</v>
       </c>
       <c r="AF3" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21-05-2024</t>
         </is>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>23VEIK96</t>
+          <t>24AMA01-2</t>
         </is>
       </c>
       <c r="D4" s="22" t="inlineStr">
@@ -1108,22 +1108,22 @@
       </c>
       <c r="F4" s="32" t="inlineStr">
         <is>
-          <t>18-12-2023</t>
+          <t>22-03-2024</t>
         </is>
       </c>
       <c r="G4" s="32" t="inlineStr">
         <is>
-          <t>13-03-2024</t>
+          <t>12-05-2024</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Mario &amp; Maurizio Ascione - Malta</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="K4" s="33" t="n">
-        <v>35118.48</v>
+        <v>20337.09</v>
       </c>
       <c r="L4" s="34" t="n">
-        <v>17938.24</v>
+        <v>0</v>
       </c>
       <c r="M4" s="34" t="n">
-        <v>10205.1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="34" t="n">
-        <v>0</v>
+        <v>14816.1</v>
       </c>
       <c r="O4" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="34" t="n">
-        <v>107.09</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="35" t="n">
-        <v>21.72</v>
+        <v>0</v>
       </c>
       <c r="R4" s="35" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="35" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="U4" s="35" t="n">
         <v>0</v>
@@ -1177,488 +1177,1348 @@
         <v>0</v>
       </c>
       <c r="Z4" s="36" t="n">
-        <v>0</v>
+        <v>4012</v>
       </c>
       <c r="AA4" s="36" t="n">
-        <v>0</v>
+        <v>55.34</v>
       </c>
       <c r="AB4" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC4" s="37" t="n">
-        <v>30590.77</v>
+        <v>18883.47</v>
       </c>
       <c r="AD4" s="38" t="n">
-        <v>0</v>
+        <v>1453.62</v>
       </c>
       <c r="AE4" s="17" t="n">
-        <v>0</v>
+        <v>46893.78119999999</v>
       </c>
       <c r="AF4" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21-05-2024</t>
         </is>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>24FLOS58</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>Küçüker Makina</t>
+        </is>
+      </c>
+      <c r="F5" s="32" t="inlineStr">
+        <is>
+          <t>19-04-2024</t>
+        </is>
+      </c>
+      <c r="G5" s="32" t="inlineStr">
+        <is>
+          <t>13-05-2024</t>
+        </is>
+      </c>
+      <c r="H5" s="12" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K5" s="33" t="n">
+        <v>16727.55</v>
+      </c>
+      <c r="L5" s="34" t="n">
+        <v>14218.4175</v>
+      </c>
+      <c r="M5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="37" t="n">
+        <v>14629.2675</v>
+      </c>
+      <c r="AD5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="13" t="inlineStr">
+        <is>
           <t>İP</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
         <is>
           <t>Semih</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>23PK3005-8</t>
-        </is>
-      </c>
-      <c r="D5" s="22" t="inlineStr">
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>24PK3006-3</t>
+        </is>
+      </c>
+      <c r="D6" s="22" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="E5" s="22" t="inlineStr">
+      <c r="E6" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F6" s="32" t="inlineStr">
+        <is>
+          <t>01-04-2024</t>
+        </is>
+      </c>
+      <c r="G6" s="32" t="inlineStr">
+        <is>
+          <t>13-05-2024</t>
+        </is>
+      </c>
+      <c r="H6" s="12" t="inlineStr">
+        <is>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K6" s="33" t="n">
+        <v>6363.34</v>
+      </c>
+      <c r="L6" s="34" t="n">
+        <v>6363.3375</v>
+      </c>
+      <c r="M6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="37" t="n">
+        <v>6363.3375</v>
+      </c>
+      <c r="AD6" s="38" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AE6" s="17" t="n">
+        <v>0.08065</v>
+      </c>
+      <c r="AF6" s="19" t="inlineStr">
+        <is>
+          <t>17-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>24ZKI03</t>
+        </is>
+      </c>
+      <c r="D7" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E7" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F7" s="32" t="inlineStr">
+        <is>
+          <t>19-04-2024</t>
+        </is>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t>16-05-2024</t>
+        </is>
+      </c>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>Roland - AU</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K7" s="33" t="n">
+        <v>19775.03</v>
+      </c>
+      <c r="L7" s="34" t="n">
+        <v>13054.41</v>
+      </c>
+      <c r="M7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="35" t="n">
+        <v>800</v>
+      </c>
+      <c r="S7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="35" t="n">
+        <v>1530</v>
+      </c>
+      <c r="U7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="37" t="n">
+        <v>15386.03</v>
+      </c>
+      <c r="AD7" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>24MTT06</t>
+        </is>
+      </c>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E8" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F8" s="32" t="inlineStr">
+        <is>
+          <t>16-05-2024</t>
+        </is>
+      </c>
+      <c r="G8" s="32" t="inlineStr">
+        <is>
+          <t>20-05-2024</t>
+        </is>
+      </c>
+      <c r="H8" s="12" t="inlineStr">
+        <is>
+          <t>Tayyar Yüzgeç - Turkey</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K8" s="33" t="n">
+        <v>899.78</v>
+      </c>
+      <c r="L8" s="34" t="n">
+        <v>637.43421</v>
+      </c>
+      <c r="M8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="37" t="n">
+        <v>637.43421</v>
+      </c>
+      <c r="AD8" s="38" t="n">
+        <v>262.34579</v>
+      </c>
+      <c r="AE8" s="17" t="n">
+        <v>8463.2751854</v>
+      </c>
+      <c r="AF8" s="19" t="inlineStr">
+        <is>
+          <t>16-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="13" t="inlineStr">
+        <is>
+          <t>İP</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>24PK3006-4</t>
+        </is>
+      </c>
+      <c r="D9" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E9" s="22" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
-      <c r="F5" s="32" t="inlineStr">
-        <is>
-          <t>09-11-2023</t>
-        </is>
-      </c>
-      <c r="G5" s="32" t="inlineStr">
-        <is>
-          <t>15-03-2024</t>
-        </is>
-      </c>
-      <c r="H5" s="12" t="inlineStr">
+      <c r="F9" s="32" t="inlineStr">
+        <is>
+          <t>20-05-2024</t>
+        </is>
+      </c>
+      <c r="G9" s="32" t="inlineStr">
+        <is>
+          <t>20-05-2024</t>
+        </is>
+      </c>
+      <c r="H9" s="12" t="inlineStr">
         <is>
           <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="K5" s="33" t="n">
+      <c r="K9" s="33" t="n">
+        <v>707.04</v>
+      </c>
+      <c r="L9" s="34" t="n">
+        <v>707.0375</v>
+      </c>
+      <c r="M9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="37" t="n">
+        <v>707.0375</v>
+      </c>
+      <c r="AD9" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <t>24VML01-1</t>
+        </is>
+      </c>
+      <c r="D10" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E10" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F10" s="32" t="inlineStr">
+        <is>
+          <t>02-04-2024</t>
+        </is>
+      </c>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t>20-05-2024</t>
+        </is>
+      </c>
+      <c r="H10" s="12" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>DDP</t>
+        </is>
+      </c>
+      <c r="K10" s="33" t="n">
+        <v>30407.2</v>
+      </c>
+      <c r="L10" s="34" t="n">
+        <v>9492.120000000001</v>
+      </c>
+      <c r="M10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="34" t="n">
+        <v>5254.74</v>
+      </c>
+      <c r="O10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="35" t="n">
+        <v>108.53</v>
+      </c>
+      <c r="R10" s="35" t="n">
+        <v>420</v>
+      </c>
+      <c r="S10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="37" t="n">
+        <v>15301.74</v>
+      </c>
+      <c r="AD10" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>24CHT01</t>
+        </is>
+      </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F11" s="32" t="inlineStr">
+        <is>
+          <t>21-03-2024</t>
+        </is>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>20-05-2024</t>
+        </is>
+      </c>
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>Charles Taylor - UK</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="K11" s="33" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="34" t="n">
+        <v>3591.68</v>
+      </c>
+      <c r="O11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="37" t="n">
+        <v>3591.68</v>
+      </c>
+      <c r="AD11" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B12" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C12" s="13" t="inlineStr">
+        <is>
+          <t>24HON08</t>
+        </is>
+      </c>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E12" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F12" s="32" t="inlineStr">
+        <is>
+          <t>24-04-2024</t>
+        </is>
+      </c>
+      <c r="G12" s="32" t="inlineStr">
+        <is>
+          <t>27-05-2024</t>
+        </is>
+      </c>
+      <c r="H12" s="12" t="inlineStr">
+        <is>
+          <t>Mauro - Honduras</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K12" s="33" t="n">
+        <v>27437.5</v>
+      </c>
+      <c r="L12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34" t="n">
+        <v>10582.5</v>
+      </c>
+      <c r="O12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="35" t="n">
+        <v>5250</v>
+      </c>
+      <c r="U12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="36" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="AB12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="37" t="n">
+        <v>15904.11</v>
+      </c>
+      <c r="AD12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="13" t="inlineStr">
+        <is>
+          <t>İP</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>24PK3006-5</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E13" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F13" s="32" t="inlineStr">
+        <is>
+          <t>01-04-2024</t>
+        </is>
+      </c>
+      <c r="G13" s="32" t="inlineStr">
+        <is>
+          <t>27-05-2024</t>
+        </is>
+      </c>
+      <c r="H13" s="12" t="inlineStr">
+        <is>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K13" s="33" t="n">
+        <v>1414.08</v>
+      </c>
+      <c r="L13" s="34" t="n">
+        <v>1414.075</v>
+      </c>
+      <c r="M13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="37" t="n">
+        <v>1414.075</v>
+      </c>
+      <c r="AD13" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C14" s="13" t="inlineStr">
+        <is>
+          <t>24DSP10</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E14" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F14" s="32" t="inlineStr">
+        <is>
+          <t>15-04-2024</t>
+        </is>
+      </c>
+      <c r="G14" s="32" t="inlineStr">
+        <is>
+          <t>27-05-2024</t>
+        </is>
+      </c>
+      <c r="H14" s="12" t="inlineStr">
+        <is>
+          <t>Douglas - Belize</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Belize</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K14" s="33" t="n">
+        <v>55536.66</v>
+      </c>
+      <c r="L14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="34" t="n">
+        <v>30062.8</v>
+      </c>
+      <c r="O14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="36" t="n">
+        <v>2694</v>
+      </c>
+      <c r="AA14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="37" t="n">
+        <v>32757.45</v>
+      </c>
+      <c r="AD14" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="13" t="inlineStr">
+        <is>
+          <t>İP</t>
+        </is>
+      </c>
+      <c r="B15" s="13" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>24PK3006-6</t>
+        </is>
+      </c>
+      <c r="D15" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E15" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F15" s="32" t="inlineStr">
+        <is>
+          <t>29-05-2024</t>
+        </is>
+      </c>
+      <c r="G15" s="32" t="inlineStr">
+        <is>
+          <t>29-05-2024</t>
+        </is>
+      </c>
+      <c r="H15" s="12" t="inlineStr">
+        <is>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K15" s="33" t="n">
         <v>7070.38</v>
       </c>
-      <c r="L5" s="34" t="n">
-        <v>6102.85</v>
-      </c>
-      <c r="M5" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="37" t="n">
-        <v>6102.85</v>
-      </c>
-      <c r="AD5" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="19" t="inlineStr">
+      <c r="L15" s="34" t="n">
+        <v>7070.375</v>
+      </c>
+      <c r="M15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="37" t="n">
+        <v>7070.375</v>
+      </c>
+      <c r="AD15" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="13" t="n"/>
-      <c r="D6" s="22" t="n"/>
-      <c r="E6" s="22" t="n"/>
-      <c r="F6" s="32" t="n"/>
-      <c r="G6" s="32" t="n"/>
-      <c r="H6" s="12" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="33" t="n"/>
-      <c r="L6" s="34" t="n"/>
-      <c r="M6" s="34" t="n"/>
-      <c r="N6" s="34" t="n"/>
-      <c r="O6" s="34" t="n"/>
-      <c r="P6" s="34" t="n"/>
-      <c r="Q6" s="35" t="n"/>
-      <c r="R6" s="35" t="n"/>
-      <c r="S6" s="35" t="n"/>
-      <c r="T6" s="35" t="n"/>
-      <c r="U6" s="35" t="n"/>
-      <c r="V6" s="35" t="n"/>
-      <c r="W6" s="35" t="n"/>
-      <c r="X6" s="35" t="n"/>
-      <c r="Y6" s="36" t="n"/>
-      <c r="Z6" s="36" t="n"/>
-      <c r="AA6" s="36" t="n"/>
-      <c r="AB6" s="36" t="n"/>
-      <c r="AC6" s="37" t="n"/>
-      <c r="AD6" s="38" t="n"/>
-      <c r="AE6" s="17" t="n"/>
-      <c r="AF6" s="19" t="n"/>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="22" t="n"/>
-      <c r="E7" s="22" t="n"/>
-      <c r="F7" s="32" t="n"/>
-      <c r="G7" s="32" t="n"/>
-      <c r="H7" s="12" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="33" t="n"/>
-      <c r="L7" s="34" t="n"/>
-      <c r="M7" s="34" t="n"/>
-      <c r="N7" s="34" t="n"/>
-      <c r="O7" s="34" t="n"/>
-      <c r="P7" s="34" t="n"/>
-      <c r="Q7" s="35" t="n"/>
-      <c r="R7" s="35" t="n"/>
-      <c r="S7" s="35" t="n"/>
-      <c r="T7" s="35" t="n"/>
-      <c r="U7" s="35" t="n"/>
-      <c r="V7" s="35" t="n"/>
-      <c r="W7" s="35" t="n"/>
-      <c r="X7" s="35" t="n"/>
-      <c r="Y7" s="36" t="n"/>
-      <c r="Z7" s="36" t="n"/>
-      <c r="AA7" s="36" t="n"/>
-      <c r="AB7" s="36" t="n"/>
-      <c r="AC7" s="37" t="n"/>
-      <c r="AD7" s="38" t="n"/>
-      <c r="AE7" s="17" t="n"/>
-      <c r="AF7" s="19" t="n"/>
-    </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="22" t="n"/>
-      <c r="E8" s="22" t="n"/>
-      <c r="F8" s="32" t="n"/>
-      <c r="G8" s="32" t="n"/>
-      <c r="H8" s="12" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="33" t="n"/>
-      <c r="L8" s="34" t="n"/>
-      <c r="M8" s="34" t="n"/>
-      <c r="N8" s="34" t="n"/>
-      <c r="O8" s="34" t="n"/>
-      <c r="P8" s="34" t="n"/>
-      <c r="Q8" s="35" t="n"/>
-      <c r="R8" s="35" t="n"/>
-      <c r="S8" s="35" t="n"/>
-      <c r="T8" s="35" t="n"/>
-      <c r="U8" s="35" t="n"/>
-      <c r="V8" s="35" t="n"/>
-      <c r="W8" s="35" t="n"/>
-      <c r="X8" s="35" t="n"/>
-      <c r="Y8" s="36" t="n"/>
-      <c r="Z8" s="36" t="n"/>
-      <c r="AA8" s="36" t="n"/>
-      <c r="AB8" s="36" t="n"/>
-      <c r="AC8" s="37" t="n"/>
-      <c r="AD8" s="38" t="n"/>
-      <c r="AE8" s="17" t="n"/>
-      <c r="AF8" s="19" t="n"/>
-    </row>
-    <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="22" t="n"/>
-      <c r="E9" s="22" t="n"/>
-      <c r="F9" s="32" t="n"/>
-      <c r="G9" s="32" t="n"/>
-      <c r="H9" s="12" t="n"/>
-      <c r="I9" s="3" t="n"/>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="33" t="n"/>
-      <c r="L9" s="34" t="n"/>
-      <c r="M9" s="34" t="n"/>
-      <c r="N9" s="34" t="n"/>
-      <c r="O9" s="34" t="n"/>
-      <c r="P9" s="34" t="n"/>
-      <c r="Q9" s="35" t="n"/>
-      <c r="R9" s="35" t="n"/>
-      <c r="S9" s="35" t="n"/>
-      <c r="T9" s="35" t="n"/>
-      <c r="U9" s="35" t="n"/>
-      <c r="V9" s="35" t="n"/>
-      <c r="W9" s="35" t="n"/>
-      <c r="X9" s="35" t="n"/>
-      <c r="Y9" s="36" t="n"/>
-      <c r="Z9" s="36" t="n"/>
-      <c r="AA9" s="36" t="n"/>
-      <c r="AB9" s="36" t="n"/>
-      <c r="AC9" s="37" t="n"/>
-      <c r="AD9" s="38" t="n"/>
-      <c r="AE9" s="17" t="n"/>
-      <c r="AF9" s="19" t="n"/>
-    </row>
-    <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="22" t="n"/>
-      <c r="E10" s="22" t="n"/>
-      <c r="F10" s="32" t="n"/>
-      <c r="G10" s="32" t="n"/>
-      <c r="H10" s="12" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="33" t="n"/>
-      <c r="L10" s="34" t="n"/>
-      <c r="M10" s="34" t="n"/>
-      <c r="N10" s="34" t="n"/>
-      <c r="O10" s="34" t="n"/>
-      <c r="P10" s="34" t="n"/>
-      <c r="Q10" s="35" t="n"/>
-      <c r="R10" s="35" t="n"/>
-      <c r="S10" s="35" t="n"/>
-      <c r="T10" s="35" t="n"/>
-      <c r="U10" s="35" t="n"/>
-      <c r="V10" s="35" t="n"/>
-      <c r="W10" s="35" t="n"/>
-      <c r="X10" s="35" t="n"/>
-      <c r="Y10" s="36" t="n"/>
-      <c r="Z10" s="36" t="n"/>
-      <c r="AA10" s="36" t="n"/>
-      <c r="AB10" s="36" t="n"/>
-      <c r="AC10" s="37" t="n"/>
-      <c r="AD10" s="38" t="n"/>
-      <c r="AE10" s="17" t="n"/>
-      <c r="AF10" s="19" t="n"/>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="22" t="n"/>
-      <c r="E11" s="22" t="n"/>
-      <c r="F11" s="32" t="n"/>
-      <c r="G11" s="32" t="n"/>
-      <c r="H11" s="12" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="33" t="n"/>
-      <c r="L11" s="34" t="n"/>
-      <c r="M11" s="34" t="n"/>
-      <c r="N11" s="34" t="n"/>
-      <c r="O11" s="34" t="n"/>
-      <c r="P11" s="34" t="n"/>
-      <c r="Q11" s="35" t="n"/>
-      <c r="R11" s="35" t="n"/>
-      <c r="S11" s="35" t="n"/>
-      <c r="T11" s="35" t="n"/>
-      <c r="U11" s="35" t="n"/>
-      <c r="V11" s="35" t="n"/>
-      <c r="W11" s="35" t="n"/>
-      <c r="X11" s="35" t="n"/>
-      <c r="Y11" s="36" t="n"/>
-      <c r="Z11" s="36" t="n"/>
-      <c r="AA11" s="36" t="n"/>
-      <c r="AB11" s="36" t="n"/>
-      <c r="AC11" s="37" t="n"/>
-      <c r="AD11" s="38" t="n"/>
-      <c r="AE11" s="17" t="n"/>
-      <c r="AF11" s="19" t="n"/>
-    </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="22" t="n"/>
-      <c r="E12" s="22" t="n"/>
-      <c r="F12" s="32" t="n"/>
-      <c r="G12" s="32" t="n"/>
-      <c r="H12" s="12" t="n"/>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="33" t="n"/>
-      <c r="L12" s="34" t="n"/>
-      <c r="M12" s="34" t="n"/>
-      <c r="N12" s="34" t="n"/>
-      <c r="O12" s="34" t="n"/>
-      <c r="P12" s="34" t="n"/>
-      <c r="Q12" s="35" t="n"/>
-      <c r="R12" s="35" t="n"/>
-      <c r="S12" s="35" t="n"/>
-      <c r="T12" s="35" t="n"/>
-      <c r="U12" s="35" t="n"/>
-      <c r="V12" s="35" t="n"/>
-      <c r="W12" s="35" t="n"/>
-      <c r="X12" s="35" t="n"/>
-      <c r="Y12" s="36" t="n"/>
-      <c r="Z12" s="36" t="n"/>
-      <c r="AA12" s="36" t="n"/>
-      <c r="AB12" s="36" t="n"/>
-      <c r="AC12" s="37" t="n"/>
-      <c r="AD12" s="38" t="n"/>
-      <c r="AE12" s="17" t="n"/>
-      <c r="AF12" s="19" t="n"/>
-    </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="22" t="n"/>
-      <c r="E13" s="22" t="n"/>
-      <c r="F13" s="32" t="n"/>
-      <c r="G13" s="32" t="n"/>
-      <c r="H13" s="12" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="33" t="n"/>
-      <c r="L13" s="34" t="n"/>
-      <c r="M13" s="34" t="n"/>
-      <c r="N13" s="34" t="n"/>
-      <c r="O13" s="34" t="n"/>
-      <c r="P13" s="34" t="n"/>
-      <c r="Q13" s="35" t="n"/>
-      <c r="R13" s="35" t="n"/>
-      <c r="S13" s="35" t="n"/>
-      <c r="T13" s="35" t="n"/>
-      <c r="U13" s="35" t="n"/>
-      <c r="V13" s="35" t="n"/>
-      <c r="W13" s="35" t="n"/>
-      <c r="X13" s="35" t="n"/>
-      <c r="Y13" s="36" t="n"/>
-      <c r="Z13" s="36" t="n"/>
-      <c r="AA13" s="36" t="n"/>
-      <c r="AB13" s="36" t="n"/>
-      <c r="AC13" s="37" t="n"/>
-      <c r="AD13" s="38" t="n"/>
-      <c r="AE13" s="17" t="n"/>
-      <c r="AF13" s="19" t="n"/>
-    </row>
-    <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="22" t="n"/>
-      <c r="E14" s="22" t="n"/>
-      <c r="F14" s="32" t="n"/>
-      <c r="G14" s="32" t="n"/>
-      <c r="H14" s="12" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="33" t="n"/>
-      <c r="L14" s="34" t="n"/>
-      <c r="M14" s="34" t="n"/>
-      <c r="N14" s="34" t="n"/>
-      <c r="O14" s="34" t="n"/>
-      <c r="P14" s="34" t="n"/>
-      <c r="Q14" s="35" t="n"/>
-      <c r="R14" s="35" t="n"/>
-      <c r="S14" s="35" t="n"/>
-      <c r="T14" s="35" t="n"/>
-      <c r="U14" s="35" t="n"/>
-      <c r="V14" s="35" t="n"/>
-      <c r="W14" s="35" t="n"/>
-      <c r="X14" s="35" t="n"/>
-      <c r="Y14" s="36" t="n"/>
-      <c r="Z14" s="36" t="n"/>
-      <c r="AA14" s="36" t="n"/>
-      <c r="AB14" s="36" t="n"/>
-      <c r="AC14" s="37" t="n"/>
-      <c r="AD14" s="38" t="n"/>
-      <c r="AE14" s="17" t="n"/>
-      <c r="AF14" s="19" t="n"/>
-    </row>
-    <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="22" t="n"/>
-      <c r="E15" s="22" t="n"/>
-      <c r="F15" s="32" t="n"/>
-      <c r="G15" s="32" t="n"/>
-      <c r="H15" s="12" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="33" t="n"/>
-      <c r="L15" s="34" t="n"/>
-      <c r="M15" s="34" t="n"/>
-      <c r="N15" s="34" t="n"/>
-      <c r="O15" s="34" t="n"/>
-      <c r="P15" s="34" t="n"/>
-      <c r="Q15" s="35" t="n"/>
-      <c r="R15" s="35" t="n"/>
-      <c r="S15" s="35" t="n"/>
-      <c r="T15" s="35" t="n"/>
-      <c r="U15" s="35" t="n"/>
-      <c r="V15" s="35" t="n"/>
-      <c r="W15" s="35" t="n"/>
-      <c r="X15" s="35" t="n"/>
-      <c r="Y15" s="36" t="n"/>
-      <c r="Z15" s="36" t="n"/>
-      <c r="AA15" s="36" t="n"/>
-      <c r="AB15" s="36" t="n"/>
-      <c r="AC15" s="37" t="n"/>
-      <c r="AD15" s="38" t="n"/>
-      <c r="AE15" s="17" t="n"/>
-      <c r="AF15" s="19" t="n"/>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="13" t="n"/>

--- a/excel/dosyalar/ayo_maliyet_listesi.xlsx
+++ b/excel/dosyalar/ayo_maliyet_listesi.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -843,17 +843,17 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>İP</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>24PK3006-2</t>
+          <t>24VEIK100</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -868,34 +868,34 @@
       </c>
       <c r="F2" s="32" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>26-09-2024</t>
         </is>
       </c>
       <c r="G2" s="32" t="inlineStr">
         <is>
-          <t>03-05-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>Veik - UAE</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>EXW</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K2" s="33" t="n">
-        <v>4242.23</v>
+        <v>36644.26</v>
       </c>
       <c r="L2" s="34" t="n">
-        <v>4242.225</v>
+        <v>29478.25</v>
       </c>
       <c r="M2" s="34" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="O2" s="34" t="n">
-        <v>0</v>
+        <v>668.7</v>
       </c>
       <c r="P2" s="34" t="n">
-        <v>0</v>
+        <v>110.16</v>
       </c>
       <c r="Q2" s="35" t="n">
-        <v>0</v>
+        <v>20.36</v>
       </c>
       <c r="R2" s="35" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="S2" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="35" t="n">
-        <v>0</v>
+        <v>2430</v>
       </c>
       <c r="U2" s="35" t="n">
         <v>0</v>
@@ -943,20 +943,20 @@
         <v>0</v>
       </c>
       <c r="AB2" s="36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="37" t="n">
+        <v>33547.92</v>
+      </c>
+      <c r="AD2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AC2" s="37" t="n">
-        <v>4242.225</v>
-      </c>
-      <c r="AD2" s="38" t="n">
-        <v>0.005</v>
-      </c>
       <c r="AE2" s="17" t="n">
-        <v>0.16165</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="19" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>24AMA01-1</t>
+          <t>24FLOS63</t>
         </is>
       </c>
       <c r="D3" s="22" t="inlineStr">
@@ -983,22 +983,22 @@
       </c>
       <c r="E3" s="22" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Küçüker Makina</t>
         </is>
       </c>
       <c r="F3" s="32" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>18-10-2024</t>
         </is>
       </c>
       <c r="G3" s="32" t="inlineStr">
         <is>
-          <t>12-05-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
         <is>
-          <t>Mario &amp; Maurizio Ascione - Malta</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="K3" s="33" t="n">
-        <v>2138.34</v>
+        <v>16140.75</v>
       </c>
       <c r="L3" s="34" t="n">
-        <v>0</v>
+        <v>12776.4435</v>
       </c>
       <c r="M3" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="34" t="n">
-        <v>1179.36</v>
+        <v>832.23</v>
       </c>
       <c r="O3" s="34" t="n">
-        <v>0</v>
+        <v>334.35</v>
       </c>
       <c r="P3" s="34" t="n">
-        <v>0</v>
+        <v>68.23</v>
       </c>
       <c r="Q3" s="35" t="n">
         <v>0</v>
@@ -1066,34 +1066,34 @@
         <v>0</v>
       </c>
       <c r="AC3" s="37" t="n">
-        <v>1590.21</v>
+        <v>14420.0035</v>
       </c>
       <c r="AD3" s="38" t="n">
-        <v>548.13</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="17" t="n">
-        <v>17682.6738</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="19" t="inlineStr">
         <is>
-          <t>21-05-2024</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>24AMA01-2</t>
+          <t>24DWGT01-1</t>
         </is>
       </c>
       <c r="D4" s="22" t="inlineStr">
@@ -1108,31 +1108,31 @@
       </c>
       <c r="F4" s="32" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>10-08-2024</t>
         </is>
       </c>
       <c r="G4" s="32" t="inlineStr">
         <is>
-          <t>12-05-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
         <is>
-          <t>Mario &amp; Maurizio Ascione - Malta</t>
+          <t>Dwight Rigby - Turks and Caicos</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Turks and Caicos Islands</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K4" s="33" t="n">
-        <v>20337.09</v>
+        <v>58010.04</v>
       </c>
       <c r="L4" s="34" t="n">
         <v>0</v>
@@ -1141,25 +1141,25 @@
         <v>0</v>
       </c>
       <c r="N4" s="34" t="n">
-        <v>14816.1</v>
+        <v>18867.75</v>
       </c>
       <c r="O4" s="34" t="n">
-        <v>0</v>
+        <v>1325.33</v>
       </c>
       <c r="P4" s="34" t="n">
-        <v>0</v>
+        <v>105.63</v>
       </c>
       <c r="Q4" s="35" t="n">
-        <v>0</v>
+        <v>10.18</v>
       </c>
       <c r="R4" s="35" t="n">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="S4" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="35" t="n">
-        <v>0</v>
+        <v>7059</v>
       </c>
       <c r="U4" s="35" t="n">
         <v>0</v>
@@ -1177,43 +1177,43 @@
         <v>0</v>
       </c>
       <c r="Z4" s="36" t="n">
-        <v>4012</v>
+        <v>19337</v>
       </c>
       <c r="AA4" s="36" t="n">
-        <v>55.34</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="36" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="AC4" s="37" t="n">
+        <v>47167.64</v>
+      </c>
+      <c r="AD4" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" s="37" t="n">
-        <v>18883.47</v>
-      </c>
-      <c r="AD4" s="38" t="n">
-        <v>1453.62</v>
-      </c>
       <c r="AE4" s="17" t="n">
-        <v>46893.78119999999</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="19" t="inlineStr">
         <is>
-          <t>21-05-2024</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>24FLOS58</t>
+          <t>24FRIM01-4</t>
         </is>
       </c>
       <c r="D5" s="22" t="inlineStr">
@@ -1223,39 +1223,39 @@
       </c>
       <c r="E5" s="22" t="inlineStr">
         <is>
-          <t>Küçüker Makina</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="F5" s="32" t="inlineStr">
         <is>
-          <t>19-04-2024</t>
+          <t>08-05-2024</t>
         </is>
       </c>
       <c r="G5" s="32" t="inlineStr">
         <is>
-          <t>13-05-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Farouk Hamza - Ghana</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K5" s="33" t="n">
-        <v>16727.55</v>
+        <v>9761.969999999999</v>
       </c>
       <c r="L5" s="34" t="n">
-        <v>14218.4175</v>
+        <v>7729.232325</v>
       </c>
       <c r="M5" s="34" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="35" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S5" s="35" t="n">
         <v>0</v>
@@ -1300,40 +1300,40 @@
         <v>0</v>
       </c>
       <c r="AA5" s="36" t="n">
-        <v>0</v>
+        <v>16.51</v>
       </c>
       <c r="AB5" s="36" t="n">
-        <v>0</v>
+        <v>28.91</v>
       </c>
       <c r="AC5" s="37" t="n">
-        <v>14629.2675</v>
+        <v>7774.652325</v>
       </c>
       <c r="AD5" s="38" t="n">
-        <v>0</v>
+        <v>1987.317675</v>
       </c>
       <c r="AE5" s="17" t="n">
-        <v>0</v>
+        <v>68940.05014574999</v>
       </c>
       <c r="AF5" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>27-11-2024</t>
         </is>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>İP</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>24PK3006-3</t>
+          <t>24MOD04</t>
         </is>
       </c>
       <c r="D6" s="22" t="inlineStr">
@@ -1348,64 +1348,64 @@
       </c>
       <c r="F6" s="32" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>11-10-2024</t>
         </is>
       </c>
       <c r="G6" s="32" t="inlineStr">
         <is>
-          <t>13-05-2024</t>
+          <t>12-11-2024</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>Ahmad, Modul - Dubai</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>EXW</t>
+          <t>DAP</t>
         </is>
       </c>
       <c r="K6" s="33" t="n">
-        <v>6363.34</v>
+        <v>38896.25</v>
       </c>
       <c r="L6" s="34" t="n">
-        <v>6363.3375</v>
+        <v>0</v>
       </c>
       <c r="M6" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="34" t="n">
-        <v>0</v>
+        <v>24849.15</v>
       </c>
       <c r="O6" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="34" t="n">
-        <v>0</v>
+        <v>336.19</v>
       </c>
       <c r="Q6" s="35" t="n">
-        <v>0</v>
+        <v>10.17</v>
       </c>
       <c r="R6" s="35" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S6" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T6" s="35" t="n">
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="U6" s="35" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V6" s="35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W6" s="35" t="n">
         <v>0</v>
@@ -1414,46 +1414,46 @@
         <v>0</v>
       </c>
       <c r="Y6" s="36" t="n">
-        <v>0</v>
+        <v>3352.75</v>
       </c>
       <c r="Z6" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AA6" s="36" t="n">
-        <v>0</v>
+        <v>59.53</v>
       </c>
       <c r="AB6" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC6" s="37" t="n">
-        <v>6363.3375</v>
+        <v>32077.79</v>
       </c>
       <c r="AD6" s="38" t="n">
-        <v>0.0025</v>
+        <v>6818.46</v>
       </c>
       <c r="AE6" s="17" t="n">
-        <v>0.08065</v>
+        <v>233873.178</v>
       </c>
       <c r="AF6" s="19" t="inlineStr">
         <is>
-          <t>17-05-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>24ZKI03</t>
+          <t>24COME09</t>
         </is>
       </c>
       <c r="D7" s="22" t="inlineStr">
@@ -1468,34 +1468,34 @@
       </c>
       <c r="F7" s="32" t="inlineStr">
         <is>
-          <t>19-04-2024</t>
+          <t>15-11-2024</t>
         </is>
       </c>
       <c r="G7" s="32" t="inlineStr">
         <is>
-          <t>16-05-2024</t>
+          <t>15-11-2024</t>
         </is>
       </c>
       <c r="H7" s="12" t="inlineStr">
         <is>
-          <t>Roland - AU</t>
+          <t>Gebran - Bahrain</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>FCA</t>
         </is>
       </c>
       <c r="K7" s="33" t="n">
-        <v>19775.03</v>
+        <v>180</v>
       </c>
       <c r="L7" s="34" t="n">
-        <v>13054.41</v>
+        <v>0</v>
       </c>
       <c r="M7" s="34" t="n">
         <v>0</v>
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="P7" s="34" t="n">
-        <v>0</v>
+        <v>106.91</v>
       </c>
       <c r="Q7" s="35" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="35" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S7" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T7" s="35" t="n">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="U7" s="35" t="n">
         <v>0</v>
@@ -1540,23 +1540,23 @@
         <v>0</v>
       </c>
       <c r="AA7" s="36" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC7" s="37" t="n">
-        <v>15386.03</v>
+        <v>106.91</v>
       </c>
       <c r="AD7" s="38" t="n">
-        <v>0</v>
+        <v>73.09</v>
       </c>
       <c r="AE7" s="17" t="n">
-        <v>0</v>
+        <v>2506.987</v>
       </c>
       <c r="AF7" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>06-11-2024</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>24MTT06</t>
+          <t>24BPOL01</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
@@ -1588,34 +1588,34 @@
       </c>
       <c r="F8" s="32" t="inlineStr">
         <is>
-          <t>16-05-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="G8" s="32" t="inlineStr">
         <is>
-          <t>20-05-2024</t>
+          <t>19-11-2024</t>
         </is>
       </c>
       <c r="H8" s="12" t="inlineStr">
         <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
+          <t>Brenda Pollak - USA</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>EXW</t>
+          <t>DDP</t>
         </is>
       </c>
       <c r="K8" s="33" t="n">
-        <v>899.78</v>
+        <v>4322.55</v>
       </c>
       <c r="L8" s="34" t="n">
-        <v>637.43421</v>
+        <v>1785.44</v>
       </c>
       <c r="M8" s="34" t="n">
         <v>0</v>
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="35" t="n">
-        <v>0</v>
+        <v>1785.44</v>
       </c>
       <c r="U8" s="35" t="n">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="V8" s="35" t="n">
         <v>0</v>
@@ -1663,37 +1663,37 @@
         <v>0</v>
       </c>
       <c r="AB8" s="36" t="n">
-        <v>0</v>
+        <v>21.68</v>
       </c>
       <c r="AC8" s="37" t="n">
-        <v>637.43421</v>
+        <v>3442.56</v>
       </c>
       <c r="AD8" s="38" t="n">
-        <v>262.34579</v>
+        <v>879.99</v>
       </c>
       <c r="AE8" s="17" t="n">
-        <v>8463.2751854</v>
+        <v>30192.4569</v>
       </c>
       <c r="AF8" s="19" t="inlineStr">
         <is>
-          <t>16-05-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>İP</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>24PK3006-4</t>
+          <t>24DWGT01-2</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
@@ -1703,54 +1703,54 @@
       </c>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="F9" s="32" t="inlineStr">
         <is>
-          <t>20-05-2024</t>
+          <t>10-08-2024</t>
         </is>
       </c>
       <c r="G9" s="32" t="inlineStr">
         <is>
-          <t>20-05-2024</t>
+          <t>21-11-2024</t>
         </is>
       </c>
       <c r="H9" s="12" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>Dwight Rigby - Turks and Caicos</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Turks and Caicos Islands</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>EXW</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K9" s="33" t="n">
-        <v>707.04</v>
+        <v>75036.56</v>
       </c>
       <c r="L9" s="34" t="n">
-        <v>707.0375</v>
+        <v>1688.1255</v>
       </c>
       <c r="M9" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="34" t="n">
-        <v>0</v>
+        <v>32922.99</v>
       </c>
       <c r="O9" s="34" t="n">
-        <v>0</v>
+        <v>868.66</v>
       </c>
       <c r="P9" s="34" t="n">
-        <v>0</v>
+        <v>126.81</v>
       </c>
       <c r="Q9" s="35" t="n">
-        <v>0</v>
+        <v>20.18</v>
       </c>
       <c r="R9" s="35" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="35" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="U9" s="35" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="Z9" s="36" t="n">
-        <v>0</v>
+        <v>10614</v>
       </c>
       <c r="AA9" s="36" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AB9" s="36" t="n">
-        <v>0</v>
+        <v>28.91</v>
       </c>
       <c r="AC9" s="37" t="n">
-        <v>707.0375</v>
+        <v>61289.5155</v>
       </c>
       <c r="AD9" s="38" t="n">
         <v>0</v>
@@ -1801,724 +1801,208 @@
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C10" s="13" t="inlineStr">
-        <is>
-          <t>24VML01-1</t>
-        </is>
-      </c>
-      <c r="D10" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E10" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F10" s="32" t="inlineStr">
-        <is>
-          <t>02-04-2024</t>
-        </is>
-      </c>
-      <c r="G10" s="32" t="inlineStr">
-        <is>
-          <t>20-05-2024</t>
-        </is>
-      </c>
-      <c r="H10" s="12" t="inlineStr">
-        <is>
-          <t>Vimal Kavuru</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>DDP</t>
-        </is>
-      </c>
-      <c r="K10" s="33" t="n">
-        <v>30407.2</v>
-      </c>
-      <c r="L10" s="34" t="n">
-        <v>9492.120000000001</v>
-      </c>
-      <c r="M10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="34" t="n">
-        <v>5254.74</v>
-      </c>
-      <c r="O10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="35" t="n">
-        <v>108.53</v>
-      </c>
-      <c r="R10" s="35" t="n">
-        <v>420</v>
-      </c>
-      <c r="S10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="37" t="n">
-        <v>15301.74</v>
-      </c>
-      <c r="AD10" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="22" t="n"/>
+      <c r="E10" s="22" t="n"/>
+      <c r="F10" s="32" t="n"/>
+      <c r="G10" s="32" t="n"/>
+      <c r="H10" s="12" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="33" t="n"/>
+      <c r="L10" s="34" t="n"/>
+      <c r="M10" s="34" t="n"/>
+      <c r="N10" s="34" t="n"/>
+      <c r="O10" s="34" t="n"/>
+      <c r="P10" s="34" t="n"/>
+      <c r="Q10" s="35" t="n"/>
+      <c r="R10" s="35" t="n"/>
+      <c r="S10" s="35" t="n"/>
+      <c r="T10" s="35" t="n"/>
+      <c r="U10" s="35" t="n"/>
+      <c r="V10" s="35" t="n"/>
+      <c r="W10" s="35" t="n"/>
+      <c r="X10" s="35" t="n"/>
+      <c r="Y10" s="36" t="n"/>
+      <c r="Z10" s="36" t="n"/>
+      <c r="AA10" s="36" t="n"/>
+      <c r="AB10" s="36" t="n"/>
+      <c r="AC10" s="37" t="n"/>
+      <c r="AD10" s="38" t="n"/>
+      <c r="AE10" s="17" t="n"/>
+      <c r="AF10" s="19" t="n"/>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C11" s="13" t="inlineStr">
-        <is>
-          <t>24CHT01</t>
-        </is>
-      </c>
-      <c r="D11" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E11" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F11" s="32" t="inlineStr">
-        <is>
-          <t>21-03-2024</t>
-        </is>
-      </c>
-      <c r="G11" s="32" t="inlineStr">
-        <is>
-          <t>20-05-2024</t>
-        </is>
-      </c>
-      <c r="H11" s="12" t="inlineStr">
-        <is>
-          <t>Charles Taylor - UK</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>DAP</t>
-        </is>
-      </c>
-      <c r="K11" s="33" t="n">
-        <v>8000</v>
-      </c>
-      <c r="L11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="34" t="n">
-        <v>3591.68</v>
-      </c>
-      <c r="O11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="37" t="n">
-        <v>3591.68</v>
-      </c>
-      <c r="AD11" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="22" t="n"/>
+      <c r="E11" s="22" t="n"/>
+      <c r="F11" s="32" t="n"/>
+      <c r="G11" s="32" t="n"/>
+      <c r="H11" s="12" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="33" t="n"/>
+      <c r="L11" s="34" t="n"/>
+      <c r="M11" s="34" t="n"/>
+      <c r="N11" s="34" t="n"/>
+      <c r="O11" s="34" t="n"/>
+      <c r="P11" s="34" t="n"/>
+      <c r="Q11" s="35" t="n"/>
+      <c r="R11" s="35" t="n"/>
+      <c r="S11" s="35" t="n"/>
+      <c r="T11" s="35" t="n"/>
+      <c r="U11" s="35" t="n"/>
+      <c r="V11" s="35" t="n"/>
+      <c r="W11" s="35" t="n"/>
+      <c r="X11" s="35" t="n"/>
+      <c r="Y11" s="36" t="n"/>
+      <c r="Z11" s="36" t="n"/>
+      <c r="AA11" s="36" t="n"/>
+      <c r="AB11" s="36" t="n"/>
+      <c r="AC11" s="37" t="n"/>
+      <c r="AD11" s="38" t="n"/>
+      <c r="AE11" s="17" t="n"/>
+      <c r="AF11" s="19" t="n"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B12" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C12" s="13" t="inlineStr">
-        <is>
-          <t>24HON08</t>
-        </is>
-      </c>
-      <c r="D12" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E12" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F12" s="32" t="inlineStr">
-        <is>
-          <t>24-04-2024</t>
-        </is>
-      </c>
-      <c r="G12" s="32" t="inlineStr">
-        <is>
-          <t>27-05-2024</t>
-        </is>
-      </c>
-      <c r="H12" s="12" t="inlineStr">
-        <is>
-          <t>Mauro - Honduras</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K12" s="33" t="n">
-        <v>27437.5</v>
-      </c>
-      <c r="L12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="34" t="n">
-        <v>10582.5</v>
-      </c>
-      <c r="O12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="35" t="n">
-        <v>5250</v>
-      </c>
-      <c r="U12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="36" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="AB12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="37" t="n">
-        <v>15904.11</v>
-      </c>
-      <c r="AD12" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="22" t="n"/>
+      <c r="E12" s="22" t="n"/>
+      <c r="F12" s="32" t="n"/>
+      <c r="G12" s="32" t="n"/>
+      <c r="H12" s="12" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="33" t="n"/>
+      <c r="L12" s="34" t="n"/>
+      <c r="M12" s="34" t="n"/>
+      <c r="N12" s="34" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="34" t="n"/>
+      <c r="Q12" s="35" t="n"/>
+      <c r="R12" s="35" t="n"/>
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="35" t="n"/>
+      <c r="U12" s="35" t="n"/>
+      <c r="V12" s="35" t="n"/>
+      <c r="W12" s="35" t="n"/>
+      <c r="X12" s="35" t="n"/>
+      <c r="Y12" s="36" t="n"/>
+      <c r="Z12" s="36" t="n"/>
+      <c r="AA12" s="36" t="n"/>
+      <c r="AB12" s="36" t="n"/>
+      <c r="AC12" s="37" t="n"/>
+      <c r="AD12" s="38" t="n"/>
+      <c r="AE12" s="17" t="n"/>
+      <c r="AF12" s="19" t="n"/>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="13" t="inlineStr">
-        <is>
-          <t>İP</t>
-        </is>
-      </c>
-      <c r="B13" s="13" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>24PK3006-5</t>
-        </is>
-      </c>
-      <c r="D13" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E13" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F13" s="32" t="inlineStr">
-        <is>
-          <t>01-04-2024</t>
-        </is>
-      </c>
-      <c r="G13" s="32" t="inlineStr">
-        <is>
-          <t>27-05-2024</t>
-        </is>
-      </c>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Cem-Mer (PEKER)</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>EXW</t>
-        </is>
-      </c>
-      <c r="K13" s="33" t="n">
-        <v>1414.08</v>
-      </c>
-      <c r="L13" s="34" t="n">
-        <v>1414.075</v>
-      </c>
-      <c r="M13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="37" t="n">
-        <v>1414.075</v>
-      </c>
-      <c r="AD13" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A13" s="13" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="22" t="n"/>
+      <c r="E13" s="22" t="n"/>
+      <c r="F13" s="32" t="n"/>
+      <c r="G13" s="32" t="n"/>
+      <c r="H13" s="12" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="33" t="n"/>
+      <c r="L13" s="34" t="n"/>
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="34" t="n"/>
+      <c r="O13" s="34" t="n"/>
+      <c r="P13" s="34" t="n"/>
+      <c r="Q13" s="35" t="n"/>
+      <c r="R13" s="35" t="n"/>
+      <c r="S13" s="35" t="n"/>
+      <c r="T13" s="35" t="n"/>
+      <c r="U13" s="35" t="n"/>
+      <c r="V13" s="35" t="n"/>
+      <c r="W13" s="35" t="n"/>
+      <c r="X13" s="35" t="n"/>
+      <c r="Y13" s="36" t="n"/>
+      <c r="Z13" s="36" t="n"/>
+      <c r="AA13" s="36" t="n"/>
+      <c r="AB13" s="36" t="n"/>
+      <c r="AC13" s="37" t="n"/>
+      <c r="AD13" s="38" t="n"/>
+      <c r="AE13" s="17" t="n"/>
+      <c r="AF13" s="19" t="n"/>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B14" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>24DSP10</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E14" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F14" s="32" t="inlineStr">
-        <is>
-          <t>15-04-2024</t>
-        </is>
-      </c>
-      <c r="G14" s="32" t="inlineStr">
-        <is>
-          <t>27-05-2024</t>
-        </is>
-      </c>
-      <c r="H14" s="12" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>Belize</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K14" s="33" t="n">
-        <v>55536.66</v>
-      </c>
-      <c r="L14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="34" t="n">
-        <v>30062.8</v>
-      </c>
-      <c r="O14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="36" t="n">
-        <v>2694</v>
-      </c>
-      <c r="AA14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="37" t="n">
-        <v>32757.45</v>
-      </c>
-      <c r="AD14" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A14" s="13" t="n"/>
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="22" t="n"/>
+      <c r="E14" s="22" t="n"/>
+      <c r="F14" s="32" t="n"/>
+      <c r="G14" s="32" t="n"/>
+      <c r="H14" s="12" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="33" t="n"/>
+      <c r="L14" s="34" t="n"/>
+      <c r="M14" s="34" t="n"/>
+      <c r="N14" s="34" t="n"/>
+      <c r="O14" s="34" t="n"/>
+      <c r="P14" s="34" t="n"/>
+      <c r="Q14" s="35" t="n"/>
+      <c r="R14" s="35" t="n"/>
+      <c r="S14" s="35" t="n"/>
+      <c r="T14" s="35" t="n"/>
+      <c r="U14" s="35" t="n"/>
+      <c r="V14" s="35" t="n"/>
+      <c r="W14" s="35" t="n"/>
+      <c r="X14" s="35" t="n"/>
+      <c r="Y14" s="36" t="n"/>
+      <c r="Z14" s="36" t="n"/>
+      <c r="AA14" s="36" t="n"/>
+      <c r="AB14" s="36" t="n"/>
+      <c r="AC14" s="37" t="n"/>
+      <c r="AD14" s="38" t="n"/>
+      <c r="AE14" s="17" t="n"/>
+      <c r="AF14" s="19" t="n"/>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="13" t="inlineStr">
-        <is>
-          <t>İP</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C15" s="13" t="inlineStr">
-        <is>
-          <t>24PK3006-6</t>
-        </is>
-      </c>
-      <c r="D15" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E15" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F15" s="32" t="inlineStr">
-        <is>
-          <t>29-05-2024</t>
-        </is>
-      </c>
-      <c r="G15" s="32" t="inlineStr">
-        <is>
-          <t>29-05-2024</t>
-        </is>
-      </c>
-      <c r="H15" s="12" t="inlineStr">
-        <is>
-          <t>Cem-Mer (PEKER)</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>EXW</t>
-        </is>
-      </c>
-      <c r="K15" s="33" t="n">
-        <v>7070.38</v>
-      </c>
-      <c r="L15" s="34" t="n">
-        <v>7070.375</v>
-      </c>
-      <c r="M15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="37" t="n">
-        <v>7070.375</v>
-      </c>
-      <c r="AD15" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="n"/>
+      <c r="D15" s="22" t="n"/>
+      <c r="E15" s="22" t="n"/>
+      <c r="F15" s="32" t="n"/>
+      <c r="G15" s="32" t="n"/>
+      <c r="H15" s="12" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="33" t="n"/>
+      <c r="L15" s="34" t="n"/>
+      <c r="M15" s="34" t="n"/>
+      <c r="N15" s="34" t="n"/>
+      <c r="O15" s="34" t="n"/>
+      <c r="P15" s="34" t="n"/>
+      <c r="Q15" s="35" t="n"/>
+      <c r="R15" s="35" t="n"/>
+      <c r="S15" s="35" t="n"/>
+      <c r="T15" s="35" t="n"/>
+      <c r="U15" s="35" t="n"/>
+      <c r="V15" s="35" t="n"/>
+      <c r="W15" s="35" t="n"/>
+      <c r="X15" s="35" t="n"/>
+      <c r="Y15" s="36" t="n"/>
+      <c r="Z15" s="36" t="n"/>
+      <c r="AA15" s="36" t="n"/>
+      <c r="AB15" s="36" t="n"/>
+      <c r="AC15" s="37" t="n"/>
+      <c r="AD15" s="38" t="n"/>
+      <c r="AE15" s="17" t="n"/>
+      <c r="AF15" s="19" t="n"/>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="13" t="n"/>
